--- a/Documents/ExcelData.xlsx
+++ b/Documents/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-3DGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1825AD2E-EA8D-4807-BC58-229DE23AC68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9EDFF9-1B2E-4E42-9534-3CD4E39310EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="_Schedule" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">_Schedule!$B$3:$AJ$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">_Schedule!$B$3:$AK$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,17 +40,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레임워크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,6 +81,18 @@
     <t>Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장르 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,51 +266,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="8" tint="0.39994506668294322"/>
@@ -659,7 +630,7 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
@@ -669,12 +640,12 @@
     <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -683,52 +654,52 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -748,7 +719,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
@@ -760,7 +731,7 @@
     <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -769,16 +740,16 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G6" s="16"/>
     </row>
   </sheetData>
@@ -789,247 +760,258 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="35" width="6.625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="22" style="22" customWidth="1"/>
+    <col min="4" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="36" width="6.625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="F1" s="2"/>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="5">
         <v>1</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="6">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="6">
-        <v>2</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="7">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC1" s="12">
+      <c r="AD1" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>44742.588434606485</v>
-      </c>
-      <c r="F2" s="22">
-        <v>7</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-    </row>
-    <row r="3" spans="1:36" ht="16.5" customHeight="1">
+        <v>44745.660927083336</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="G2" s="24">
+        <v>7</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+    </row>
+    <row r="3" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17">
+        <v>2</v>
+      </c>
+      <c r="I3" s="17">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17">
+        <v>4</v>
+      </c>
+      <c r="K3" s="17">
+        <v>5</v>
+      </c>
+      <c r="L3" s="17">
         <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="17">
-        <v>2</v>
-      </c>
-      <c r="H3" s="17">
-        <v>3</v>
-      </c>
-      <c r="I3" s="17">
-        <v>4</v>
-      </c>
-      <c r="J3" s="17">
-        <v>5</v>
-      </c>
-      <c r="K3" s="17">
-        <v>6</v>
-      </c>
-      <c r="L3" s="17">
-        <v>7</v>
-      </c>
       <c r="M3" s="17">
+        <v>7</v>
+      </c>
+      <c r="N3" s="17">
         <v>8</v>
       </c>
-      <c r="N3" s="19">
+      <c r="O3" s="19">
         <v>9</v>
       </c>
-      <c r="O3" s="19">
+      <c r="P3" s="19">
         <v>10</v>
       </c>
-      <c r="P3" s="19">
+      <c r="Q3" s="19">
         <v>11</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="R3" s="19">
         <v>12</v>
       </c>
-      <c r="R3" s="19">
+      <c r="S3" s="19">
         <v>13</v>
       </c>
-      <c r="S3" s="19">
+      <c r="T3" s="19">
         <v>14</v>
       </c>
-      <c r="T3" s="19">
+      <c r="U3" s="19">
         <v>15</v>
       </c>
-      <c r="U3" s="19">
+      <c r="V3" s="19">
         <v>16</v>
       </c>
-      <c r="V3" s="19">
+      <c r="W3" s="19">
         <v>17</v>
       </c>
-      <c r="W3" s="19">
+      <c r="X3" s="19">
         <v>18</v>
       </c>
-      <c r="X3" s="19">
+      <c r="Y3" s="19">
         <v>19</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Z3" s="19">
         <v>20</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="AA3" s="19">
         <v>21</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="AB3" s="19">
         <v>22</v>
       </c>
-      <c r="AB3" s="19">
+      <c r="AC3" s="19">
         <v>23</v>
       </c>
-      <c r="AC3" s="19">
+      <c r="AD3" s="19">
         <v>24</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AE3" s="19">
         <v>25</v>
       </c>
-      <c r="AE3" s="19">
+      <c r="AF3" s="19">
         <v>26</v>
       </c>
-      <c r="AF3" s="19">
+      <c r="AG3" s="19">
         <v>27</v>
       </c>
-      <c r="AG3" s="19">
+      <c r="AH3" s="19">
         <v>28</v>
       </c>
-      <c r="AH3" s="19">
+      <c r="AI3" s="19">
         <v>29</v>
       </c>
-      <c r="AI3" s="19">
+      <c r="AJ3" s="19">
         <v>30</v>
       </c>
-      <c r="AJ3" s="23">
+      <c r="AK3" s="23">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ref="D4:D19" si="0">_xlfn.IFNA(_xlfn.CONCAT($G$2,"/",MATCH(1,$G4:$AJ4)),$F4)</f>
+        <v>7/1</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT($G$2,"/",MATCH($Z$1,$G4:$AJ4)),$F4)</f>
+        <v>7/5</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F10" si="1">_xlfn.IFNA(_xlfn.CONCAT($G$2,"/",MATCH($AD$1,$G4:$AJ4)),"")</f>
+        <v>7/5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" ref="C4:C19" si="0">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F4:$AI4)),$E4)</f>
-        <v>7/1</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F4:$AI4)),$E4)</f>
-        <v>7/1</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f t="shared" ref="E4:E10" si="1">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F4:$AI4)),"")</f>
-        <v>7/1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="str">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="10" t="str">
-        <f t="shared" ref="D5:D39" si="2">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F5:$AI5)),$E5)</f>
-        <v/>
-      </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="10" t="str">
+        <f t="shared" ref="E5:E39" si="2">_xlfn.IFNA(_xlfn.CONCAT($G$2,"/",MATCH($Z$1,$G5:$AJ5)),$F5)</f>
+        <v/>
+      </c>
+      <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -1037,24 +1019,24 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="str">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D6" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -1084,24 +1066,24 @@
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AJ6" s="10"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="str">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1109,24 +1091,24 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="str">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -1134,41 +1116,41 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="str">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D9" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="str">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D10" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E10" s="2" t="str">
+      <c r="E10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1176,24 +1158,24 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="str">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F11:$AI11)),"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="E11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT($G$2,"/",MATCH($AD$1,$G11:$AJ11)),"")</f>
+        <v/>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1201,27 +1183,27 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="10"/>
+      <c r="N11" s="2"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:36" ht="15.75" customHeight="1">
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="str">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D12" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f t="shared" ref="E12:E39" si="3">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F12:$AI12)),"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="E12" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" ref="F12:F39" si="3">_xlfn.IFNA(_xlfn.CONCAT($G$2,"/",MATCH($AD$1,$G12:$AJ12)),"")</f>
+        <v/>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1229,24 +1211,24 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:36">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="D13" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F13" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -1276,24 +1258,24 @@
       <c r="AG13" s="15"/>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AJ13" s="15"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="D14" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D14" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F14" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -1323,24 +1305,24 @@
       <c r="AG14" s="15"/>
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
-    </row>
-    <row r="15" spans="1:36">
+      <c r="AJ14" s="15"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="D15" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F15" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -1370,24 +1352,24 @@
       <c r="AG15" s="15"/>
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AJ15" s="15"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="D16" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D16" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F16" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -1417,24 +1399,24 @@
       <c r="AG16" s="15"/>
       <c r="AH16" s="15"/>
       <c r="AI16" s="15"/>
-    </row>
-    <row r="17" spans="2:35">
+      <c r="AJ16" s="15"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="D17" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E17" s="2" t="str">
+      <c r="E17" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F17" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -1464,24 +1446,24 @@
       <c r="AG17" s="15"/>
       <c r="AH17" s="15"/>
       <c r="AI17" s="15"/>
-    </row>
-    <row r="18" spans="2:35">
+      <c r="AJ17" s="15"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="D18" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E18" s="2" t="str">
+      <c r="E18" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F18" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -1511,24 +1493,24 @@
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
-    </row>
-    <row r="19" spans="2:35">
+      <c r="AJ18" s="15"/>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="D19" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E19" s="2" t="str">
+      <c r="E19" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F19" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -1558,24 +1540,24 @@
       <c r="AG19" s="15"/>
       <c r="AH19" s="15"/>
       <c r="AI19" s="15"/>
-    </row>
-    <row r="20" spans="2:35">
+      <c r="AJ19" s="15"/>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="15" t="str">
-        <f t="shared" ref="C20:C39" si="4">_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F20:$AI20)),$E20)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="D20" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E20" s="2" t="str">
+        <f t="shared" ref="D20:D39" si="4">_xlfn.IFNA(_xlfn.CONCAT($G$2,"-",MATCH(1,$G20:$AJ20)),$F20)</f>
+        <v/>
+      </c>
+      <c r="E20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F20" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -1605,24 +1587,24 @@
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
-    </row>
-    <row r="21" spans="2:35">
+      <c r="AJ20" s="15"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="D21" s="15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D21" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E21" s="2" t="str">
+      <c r="E21" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F21" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
@@ -1652,24 +1634,24 @@
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
-    </row>
-    <row r="22" spans="2:35">
+      <c r="AJ21" s="15"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D22" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D22" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E22" s="2" t="str">
+      <c r="E22" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F22" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -1699,24 +1681,24 @@
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15"/>
-    </row>
-    <row r="23" spans="2:35">
+      <c r="AJ22" s="15"/>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D23" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D23" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E23" s="2" t="str">
+      <c r="E23" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F23" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -1746,24 +1728,24 @@
       <c r="AG23" s="13"/>
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
-    </row>
-    <row r="24" spans="2:35">
+      <c r="AJ23" s="13"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D24" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D24" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E24" s="2" t="str">
+      <c r="E24" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F24" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -1793,24 +1775,24 @@
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
-    </row>
-    <row r="25" spans="2:35">
+      <c r="AJ24" s="13"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D25" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D25" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E25" s="2" t="str">
+      <c r="E25" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F25" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -1840,24 +1822,24 @@
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
-    </row>
-    <row r="26" spans="2:35">
+      <c r="AJ25" s="13"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D26" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D26" s="15" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F26:$AI26)),$E26)</f>
-        <v/>
-      </c>
-      <c r="E26" s="2" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F26:$AI26)),"")</f>
-        <v/>
-      </c>
-      <c r="F26" s="13"/>
+      <c r="E26" s="15" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT($G$2,"/",MATCH($Z$1,$G26:$AJ26)),$F26)</f>
+        <v/>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT($G$2,"/",MATCH($AD$1,$G26:$AJ26)),"")</f>
+        <v/>
+      </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -1887,24 +1869,24 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
-    </row>
-    <row r="27" spans="2:35">
+      <c r="AJ26" s="13"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D27" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D27" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E27" s="2" t="str">
+      <c r="E27" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F27" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -1934,24 +1916,24 @@
       <c r="AG27" s="13"/>
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
-    </row>
-    <row r="28" spans="2:35">
+      <c r="AJ27" s="13"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D28" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D28" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E28" s="2" t="str">
+      <c r="E28" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F28" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -1981,24 +1963,24 @@
       <c r="AG28" s="13"/>
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
-    </row>
-    <row r="29" spans="2:35">
+      <c r="AJ28" s="13"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D29" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D29" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E29" s="2" t="str">
+      <c r="E29" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F29" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -2028,24 +2010,24 @@
       <c r="AG29" s="13"/>
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
-    </row>
-    <row r="30" spans="2:35">
+      <c r="AJ29" s="13"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D30" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D30" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E30" s="2" t="str">
+      <c r="E30" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F30" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -2075,24 +2057,24 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
-    </row>
-    <row r="31" spans="2:35">
+      <c r="AJ30" s="13"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D31" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D31" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E31" s="2" t="str">
+      <c r="E31" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F31" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -2122,24 +2104,24 @@
       <c r="AG31" s="13"/>
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
-    </row>
-    <row r="32" spans="2:35">
+      <c r="AJ31" s="13"/>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D32" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D32" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E32" s="2" t="str">
+      <c r="E32" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F32" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -2169,24 +2151,24 @@
       <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
-    </row>
-    <row r="33" spans="2:35">
+      <c r="AJ32" s="13"/>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D33" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D33" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E33" s="2" t="str">
+      <c r="E33" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F33" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -2216,24 +2198,24 @@
       <c r="AG33" s="13"/>
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
-    </row>
-    <row r="34" spans="2:35">
+      <c r="AJ33" s="13"/>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D34" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D34" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E34" s="2" t="str">
+      <c r="E34" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F34" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -2263,24 +2245,24 @@
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
-    </row>
-    <row r="35" spans="2:35">
+      <c r="AJ34" s="13"/>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D35" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D35" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E35" s="2" t="str">
+      <c r="E35" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F35" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -2310,24 +2292,24 @@
       <c r="AG35" s="13"/>
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
-    </row>
-    <row r="36" spans="2:35">
+      <c r="AJ35" s="13"/>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D36" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D36" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E36" s="2" t="str">
+      <c r="E36" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F36" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -2357,24 +2339,24 @@
       <c r="AG36" s="13"/>
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
-    </row>
-    <row r="37" spans="2:35">
+      <c r="AJ36" s="13"/>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D37" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D37" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E37" s="2" t="str">
+      <c r="E37" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F37" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
@@ -2404,24 +2386,24 @@
       <c r="AG37" s="13"/>
       <c r="AH37" s="13"/>
       <c r="AI37" s="13"/>
-    </row>
-    <row r="38" spans="2:35">
+      <c r="AJ37" s="13"/>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D38" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D38" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E38" s="2" t="str">
+      <c r="E38" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F38" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
@@ -2451,24 +2433,24 @@
       <c r="AG38" s="13"/>
       <c r="AH38" s="13"/>
       <c r="AI38" s="13"/>
-    </row>
-    <row r="39" spans="2:35">
+      <c r="AJ38" s="13"/>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="D39" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D39" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E39" s="2" t="str">
+      <c r="E39" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F39" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -2498,24 +2480,25 @@
       <c r="AG39" s="13"/>
       <c r="AH39" s="13"/>
       <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:AJ39" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}"/>
+  <autoFilter ref="B3:AK39" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}"/>
   <mergeCells count="1">
-    <mergeCell ref="F2:AI2"/>
+    <mergeCell ref="G2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F4:AJ39">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="G4:AK39">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/ExcelData.xlsx
+++ b/Documents/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-3DGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9EDFF9-1B2E-4E42-9534-3CD4E39310EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDAF313-5CB2-431C-8B18-E9D34B244411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="9945" yWindow="2355" windowWidth="13200" windowHeight="12870" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>장르 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 플로우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,12 +239,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,18 +643,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3">
@@ -713,46 +715,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DB0EC1-4CF4-474D-B3C0-0713CDE6B964}">
-  <dimension ref="B2:H6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G6" s="16"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -762,15 +735,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="22" customWidth="1"/>
+    <col min="3" max="3" width="22" style="20" customWidth="1"/>
     <col min="4" max="6" width="13.125" style="1" customWidth="1"/>
     <col min="7" max="36" width="6.625" style="1" customWidth="1"/>
     <col min="37" max="37" width="6.625" customWidth="1"/>
@@ -812,149 +785,149 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>44745.660927083336</v>
+        <v>44746.509504166665</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="G2" s="24">
-        <v>7</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
+      <c r="G2" s="22">
+        <v>7</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
     </row>
     <row r="3" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>1</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>2</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <v>3</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <v>4</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <v>5</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <v>6</v>
       </c>
-      <c r="M3" s="17">
-        <v>7</v>
-      </c>
-      <c r="N3" s="17">
+      <c r="M3" s="15">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15">
         <v>8</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="17">
         <v>9</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="17">
         <v>10</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="17">
         <v>11</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="17">
         <v>12</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="17">
         <v>13</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="17">
         <v>14</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="17">
         <v>15</v>
       </c>
-      <c r="V3" s="19">
+      <c r="V3" s="17">
         <v>16</v>
       </c>
-      <c r="W3" s="19">
+      <c r="W3" s="17">
         <v>17</v>
       </c>
-      <c r="X3" s="19">
+      <c r="X3" s="17">
         <v>18</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y3" s="17">
         <v>19</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="Z3" s="17">
         <v>20</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="AA3" s="17">
         <v>21</v>
       </c>
-      <c r="AB3" s="19">
+      <c r="AB3" s="17">
         <v>22</v>
       </c>
-      <c r="AC3" s="19">
+      <c r="AC3" s="17">
         <v>23</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="17">
         <v>24</v>
       </c>
-      <c r="AE3" s="19">
+      <c r="AE3" s="17">
         <v>25</v>
       </c>
-      <c r="AF3" s="19">
+      <c r="AF3" s="17">
         <v>26</v>
       </c>
-      <c r="AG3" s="19">
+      <c r="AG3" s="17">
         <v>27</v>
       </c>
-      <c r="AH3" s="19">
+      <c r="AH3" s="17">
         <v>28</v>
       </c>
-      <c r="AI3" s="19">
+      <c r="AI3" s="17">
         <v>29</v>
       </c>
-      <c r="AJ3" s="19">
+      <c r="AJ3" s="17">
         <v>30</v>
       </c>
-      <c r="AK3" s="23">
+      <c r="AK3" s="21">
         <v>31</v>
       </c>
     </row>
@@ -963,7 +936,7 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="str">
@@ -985,7 +958,9 @@
       <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>4</v>
+      </c>
       <c r="K4" s="2">
         <v>3</v>
       </c>
@@ -997,33 +972,41 @@
       <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
-        <v>7</v>
+      <c r="B5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>7/4</v>
       </c>
       <c r="E5" s="10" t="str">
         <f t="shared" ref="E5:E39" si="2">_xlfn.IFNA(_xlfn.CONCAT($G$2,"/",MATCH($Z$1,$G5:$AJ5)),$F5)</f>
-        <v/>
+        <v>7/4</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7/4</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
-        <v>7</v>
+      <c r="B6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1069,7 +1052,7 @@
       <c r="AJ6" s="10"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="str">
@@ -1094,7 +1077,7 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="str">
@@ -1119,7 +1102,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="str">
@@ -1136,7 +1119,7 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="str">
@@ -1161,7 +1144,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="str">
@@ -1189,7 +1172,7 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="str">
@@ -1214,14 +1197,14 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="15" t="str">
+      <c r="B13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E13" s="15" t="str">
+      <c r="E13" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1229,46 +1212,46 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="15" t="str">
+      <c r="B14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E14" s="15" t="str">
+      <c r="E14" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1276,46 +1259,46 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="15" t="str">
+      <c r="B15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E15" s="15" t="str">
+      <c r="E15" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1323,46 +1306,46 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="15" t="str">
+      <c r="B16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E16" s="15" t="str">
+      <c r="E16" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1370,46 +1353,46 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="15" t="str">
+      <c r="B17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E17" s="15" t="str">
+      <c r="E17" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1417,46 +1400,46 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="15" t="str">
+      <c r="B18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E18" s="15" t="str">
+      <c r="E18" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1464,46 +1447,46 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="15" t="str">
+      <c r="B19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E19" s="15" t="str">
+      <c r="E19" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1511,46 +1494,46 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="15" t="str">
+      <c r="B20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="14" t="str">
         <f t="shared" ref="D20:D39" si="4">_xlfn.IFNA(_xlfn.CONCAT($G$2,"-",MATCH(1,$G20:$AJ20)),$F20)</f>
         <v/>
       </c>
-      <c r="E20" s="15" t="str">
+      <c r="E20" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1558,46 +1541,46 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="15" t="str">
+      <c r="B21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E21" s="15" t="str">
+      <c r="E21" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1605,46 +1588,46 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="20" t="str">
+      <c r="B22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E22" s="15" t="str">
+      <c r="E22" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1652,46 +1635,46 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="20" t="str">
+      <c r="B23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E23" s="15" t="str">
+      <c r="E23" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1731,14 +1714,14 @@
       <c r="AJ23" s="13"/>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="20" t="str">
+      <c r="B24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E24" s="15" t="str">
+      <c r="E24" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1778,14 +1761,14 @@
       <c r="AJ24" s="13"/>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="20" t="str">
+      <c r="B25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E25" s="15" t="str">
+      <c r="E25" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1828,11 +1811,11 @@
       <c r="B26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="20" t="str">
+      <c r="D26" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E26" s="15" t="str">
+      <c r="E26" s="14" t="str">
         <f>_xlfn.IFNA(_xlfn.CONCAT($G$2,"/",MATCH($Z$1,$G26:$AJ26)),$F26)</f>
         <v/>
       </c>
@@ -1875,11 +1858,11 @@
       <c r="B27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="20" t="str">
+      <c r="D27" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E27" s="15" t="str">
+      <c r="E27" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1922,11 +1905,11 @@
       <c r="B28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="20" t="str">
+      <c r="D28" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E28" s="15" t="str">
+      <c r="E28" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1969,11 +1952,11 @@
       <c r="B29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="20" t="str">
+      <c r="D29" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E29" s="15" t="str">
+      <c r="E29" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2016,11 +1999,11 @@
       <c r="B30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="20" t="str">
+      <c r="D30" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E30" s="15" t="str">
+      <c r="E30" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2063,11 +2046,11 @@
       <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="20" t="str">
+      <c r="D31" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E31" s="15" t="str">
+      <c r="E31" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2110,11 +2093,11 @@
       <c r="B32" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="20" t="str">
+      <c r="D32" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E32" s="15" t="str">
+      <c r="E32" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2157,11 +2140,11 @@
       <c r="B33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="20" t="str">
+      <c r="D33" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E33" s="15" t="str">
+      <c r="E33" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2204,11 +2187,11 @@
       <c r="B34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="20" t="str">
+      <c r="D34" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E34" s="15" t="str">
+      <c r="E34" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2251,11 +2234,11 @@
       <c r="B35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="20" t="str">
+      <c r="D35" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E35" s="15" t="str">
+      <c r="E35" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2298,11 +2281,11 @@
       <c r="B36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="20" t="str">
+      <c r="D36" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E36" s="15" t="str">
+      <c r="E36" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2345,11 +2328,11 @@
       <c r="B37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="20" t="str">
+      <c r="D37" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E37" s="15" t="str">
+      <c r="E37" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2392,11 +2375,11 @@
       <c r="B38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="20" t="str">
+      <c r="D38" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E38" s="15" t="str">
+      <c r="E38" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2439,11 +2422,11 @@
       <c r="B39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="20" t="str">
+      <c r="D39" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E39" s="15" t="str">
+      <c r="E39" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/Documents/ExcelData.xlsx
+++ b/Documents/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-3DGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDAF313-5CB2-431C-8B18-E9D34B244411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C570038-A6AA-4FF5-8FFE-BD2E41C84EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="2355" windowWidth="13200" windowHeight="12870" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="23325" yWindow="2310" windowWidth="13200" windowHeight="12870" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>인게임 플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 구조 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +793,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>44746.509504166665</v>
+        <v>44747.415218287038</v>
       </c>
       <c r="C2" s="9"/>
       <c r="G2" s="22">
@@ -988,7 +996,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>7/4</v>
+        <v>7/5</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -996,7 +1004,9 @@
       <c r="J5" s="10">
         <v>1</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="10">
+        <v>4</v>
+      </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -1010,21 +1020,25 @@
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>7/4</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7/4</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7/5</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>4</v>
+      </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -1053,26 +1067,33 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>7/5</v>
       </c>
       <c r="E7" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7/6</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7/6</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <v>3</v>
+      </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
